--- a/Excel/11_stage.xlsx
+++ b/Excel/11_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11F619A-C575-452F-BF9E-96D92561637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A698FD-24F5-4E6C-AB94-97AC25AA3DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="7020" windowWidth="27600" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39525" yWindow="2220" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>12000001/12000002/12000003/12000004/12000005/12000006</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000008/12000009/12000010/12000011/12000012/12000013/12000014/12000015</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +511,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -744,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>

--- a/Excel/11_stage.xlsx
+++ b/Excel/11_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A698FD-24F5-4E6C-AB94-97AC25AA3DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCBED80-E00F-4B07-B04E-0B5CC05E7E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39525" yWindow="2220" windowWidth="31680" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="5925" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,11 +124,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>12000001/12000002/12000003/12000004/12000005/12000006</t>
+    <t>12000008/12000009/12000010/12000011/12000012/12000013/12000014/12000015</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>12000008/12000009/12000010/12000011/12000012/12000013/12000014/12000015</t>
+    <t>12000001/12000002/12000003/12000004/12000005/12000006/12000016</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +511,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -745,10 +745,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>

--- a/Excel/11_stage.xlsx
+++ b/Excel/11_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoon\EEA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCBED80-E00F-4B07-B04E-0B5CC05E7E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30E98F5-36D3-4D18-9E97-EDE12BB5C1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="5925" windowWidth="26175" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="3300" windowWidth="31200" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>12000001/12000002/12000003/12000004/12000005/12000006/12000016</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_items</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000013/14000014</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -505,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP1000"/>
+  <dimension ref="A1:BQ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -519,61 +527,63 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="5" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="92.140625" style="14" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="14" width="21.42578125" customWidth="1"/>
-    <col min="15" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="27" width="21.42578125" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" customWidth="1"/>
-    <col min="30" max="30" width="20.5703125" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" customWidth="1"/>
-    <col min="32" max="32" width="20.5703125" customWidth="1"/>
-    <col min="33" max="33" width="21.42578125" customWidth="1"/>
-    <col min="34" max="34" width="20.5703125" customWidth="1"/>
-    <col min="35" max="35" width="21.42578125" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" customWidth="1"/>
-    <col min="37" max="37" width="21.42578125" customWidth="1"/>
-    <col min="38" max="38" width="20.5703125" customWidth="1"/>
-    <col min="39" max="39" width="21.42578125" customWidth="1"/>
-    <col min="40" max="40" width="19.7109375" customWidth="1"/>
-    <col min="41" max="41" width="20.42578125" customWidth="1"/>
-    <col min="42" max="42" width="19.7109375" customWidth="1"/>
-    <col min="43" max="43" width="20.42578125" customWidth="1"/>
-    <col min="44" max="44" width="19.7109375" customWidth="1"/>
-    <col min="45" max="45" width="20.42578125" customWidth="1"/>
-    <col min="46" max="46" width="19.7109375" customWidth="1"/>
-    <col min="47" max="47" width="20.42578125" customWidth="1"/>
-    <col min="48" max="48" width="19.7109375" customWidth="1"/>
-    <col min="49" max="50" width="20.42578125" customWidth="1"/>
-    <col min="51" max="51" width="13" customWidth="1"/>
-    <col min="52" max="52" width="12.5703125" customWidth="1"/>
-    <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="12.5703125" customWidth="1"/>
-    <col min="55" max="55" width="13" customWidth="1"/>
-    <col min="56" max="56" width="12.5703125" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="12.5703125" customWidth="1"/>
-    <col min="59" max="59" width="17.42578125" customWidth="1"/>
-    <col min="60" max="60" width="18.140625" customWidth="1"/>
-    <col min="61" max="61" width="17.42578125" customWidth="1"/>
-    <col min="62" max="62" width="18.140625" customWidth="1"/>
-    <col min="63" max="63" width="17.42578125" customWidth="1"/>
-    <col min="64" max="64" width="18.140625" customWidth="1"/>
-    <col min="65" max="65" width="17.42578125" customWidth="1"/>
-    <col min="66" max="66" width="18.140625" customWidth="1"/>
-    <col min="67" max="67" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="92.140625" style="14" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="15" width="21.42578125" customWidth="1"/>
+    <col min="16" max="18" width="8.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="21.42578125" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" customWidth="1"/>
+    <col min="30" max="30" width="10.28515625" customWidth="1"/>
+    <col min="31" max="31" width="20.5703125" customWidth="1"/>
+    <col min="32" max="32" width="21.42578125" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" customWidth="1"/>
+    <col min="34" max="34" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="20.5703125" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" customWidth="1"/>
+    <col min="37" max="37" width="20.5703125" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="39" max="39" width="20.5703125" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" customWidth="1"/>
+    <col min="41" max="41" width="19.7109375" customWidth="1"/>
+    <col min="42" max="42" width="20.42578125" customWidth="1"/>
+    <col min="43" max="43" width="19.7109375" customWidth="1"/>
+    <col min="44" max="44" width="20.42578125" customWidth="1"/>
+    <col min="45" max="45" width="19.7109375" customWidth="1"/>
+    <col min="46" max="46" width="20.42578125" customWidth="1"/>
+    <col min="47" max="47" width="19.7109375" customWidth="1"/>
+    <col min="48" max="48" width="20.42578125" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" customWidth="1"/>
+    <col min="50" max="51" width="20.42578125" customWidth="1"/>
+    <col min="52" max="52" width="13" customWidth="1"/>
+    <col min="53" max="53" width="12.5703125" customWidth="1"/>
+    <col min="54" max="54" width="13" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" customWidth="1"/>
+    <col min="56" max="56" width="13" customWidth="1"/>
+    <col min="57" max="57" width="12.5703125" customWidth="1"/>
+    <col min="58" max="58" width="13" customWidth="1"/>
+    <col min="59" max="59" width="12.5703125" customWidth="1"/>
+    <col min="60" max="60" width="17.42578125" customWidth="1"/>
+    <col min="61" max="61" width="18.140625" customWidth="1"/>
+    <col min="62" max="62" width="17.42578125" customWidth="1"/>
+    <col min="63" max="63" width="18.140625" customWidth="1"/>
+    <col min="64" max="64" width="17.42578125" customWidth="1"/>
+    <col min="65" max="65" width="18.140625" customWidth="1"/>
+    <col min="66" max="66" width="17.42578125" customWidth="1"/>
+    <col min="67" max="67" width="18.140625" customWidth="1"/>
+    <col min="68" max="68" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="12.75" customHeight="1">
+    <row r="1" spans="1:69" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +599,9 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -612,7 +624,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="3"/>
+      <c r="AC1" s="1"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
@@ -634,7 +646,7 @@
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
-      <c r="AY1" s="4"/>
+      <c r="AY1" s="3"/>
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
       <c r="BB1" s="4"/>
@@ -650,10 +662,11 @@
       <c r="BL1" s="4"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="4"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="4"/>
-    </row>
-    <row r="2" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="4"/>
+    </row>
+    <row r="2" spans="1:69" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -669,7 +682,9 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -714,7 +729,7 @@
       <c r="AV2" s="6"/>
       <c r="AW2" s="6"/>
       <c r="AX2" s="6"/>
-      <c r="AY2" s="7"/>
+      <c r="AY2" s="6"/>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
@@ -730,10 +745,11 @@
       <c r="BL2" s="7"/>
       <c r="BM2" s="7"/>
       <c r="BN2" s="7"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="7"/>
-    </row>
-    <row r="3" spans="1:68" ht="16.5">
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="7"/>
+    </row>
+    <row r="3" spans="1:69" ht="16.5">
       <c r="A3" s="3">
         <f t="shared" ref="A3" si="0">ROW()-2</f>
         <v>1</v>
@@ -750,12 +766,14 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -795,7 +813,7 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
       <c r="AX3" s="1"/>
-      <c r="AY3" s="10"/>
+      <c r="AY3" s="1"/>
       <c r="AZ3" s="10"/>
       <c r="BA3" s="10"/>
       <c r="BB3" s="10"/>
@@ -811,10 +829,11 @@
       <c r="BL3" s="10"/>
       <c r="BM3" s="10"/>
       <c r="BN3" s="10"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="10"/>
-    </row>
-    <row r="4" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="10"/>
+    </row>
+    <row r="4" spans="1:69" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -824,8 +843,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -865,7 +884,7 @@
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="10"/>
+      <c r="AY4" s="1"/>
       <c r="AZ4" s="10"/>
       <c r="BA4" s="10"/>
       <c r="BB4" s="10"/>
@@ -881,10 +900,11 @@
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
       <c r="BN4" s="10"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="10"/>
-    </row>
-    <row r="5" spans="1:68" ht="12" customHeight="1">
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="10"/>
+    </row>
+    <row r="5" spans="1:69" ht="12" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -894,8 +914,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -935,7 +955,7 @@
       <c r="AV5" s="1"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="10"/>
+      <c r="AY5" s="1"/>
       <c r="AZ5" s="10"/>
       <c r="BA5" s="10"/>
       <c r="BB5" s="10"/>
@@ -951,10 +971,11 @@
       <c r="BL5" s="10"/>
       <c r="BM5" s="10"/>
       <c r="BN5" s="10"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="10"/>
-    </row>
-    <row r="6" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="10"/>
+    </row>
+    <row r="6" spans="1:69" ht="12.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -964,8 +985,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1005,7 +1026,7 @@
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="10"/>
+      <c r="AY6" s="1"/>
       <c r="AZ6" s="10"/>
       <c r="BA6" s="10"/>
       <c r="BB6" s="10"/>
@@ -1021,10 +1042,11 @@
       <c r="BL6" s="10"/>
       <c r="BM6" s="10"/>
       <c r="BN6" s="10"/>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="10"/>
-    </row>
-    <row r="7" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="10"/>
+    </row>
+    <row r="7" spans="1:69" ht="12.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -1034,8 +1056,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1075,7 +1097,7 @@
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
-      <c r="AY7" s="10"/>
+      <c r="AY7" s="1"/>
       <c r="AZ7" s="10"/>
       <c r="BA7" s="10"/>
       <c r="BB7" s="10"/>
@@ -1091,10 +1113,11 @@
       <c r="BL7" s="10"/>
       <c r="BM7" s="10"/>
       <c r="BN7" s="10"/>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="10"/>
-    </row>
-    <row r="8" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="10"/>
+    </row>
+    <row r="8" spans="1:69" ht="12.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1104,8 +1127,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1145,7 +1168,7 @@
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
-      <c r="AY8" s="10"/>
+      <c r="AY8" s="1"/>
       <c r="AZ8" s="10"/>
       <c r="BA8" s="10"/>
       <c r="BB8" s="10"/>
@@ -1161,10 +1184,11 @@
       <c r="BL8" s="10"/>
       <c r="BM8" s="10"/>
       <c r="BN8" s="10"/>
-      <c r="BO8" s="1"/>
-      <c r="BP8" s="10"/>
-    </row>
-    <row r="9" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="10"/>
+    </row>
+    <row r="9" spans="1:69" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1174,8 +1198,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1215,7 +1239,7 @@
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
       <c r="AX9" s="1"/>
-      <c r="AY9" s="10"/>
+      <c r="AY9" s="1"/>
       <c r="AZ9" s="10"/>
       <c r="BA9" s="10"/>
       <c r="BB9" s="10"/>
@@ -1231,10 +1255,11 @@
       <c r="BL9" s="10"/>
       <c r="BM9" s="10"/>
       <c r="BN9" s="10"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="10"/>
-    </row>
-    <row r="10" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO9" s="10"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="10"/>
+    </row>
+    <row r="10" spans="1:69" ht="12.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1244,8 +1269,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1285,7 +1310,7 @@
       <c r="AV10" s="1"/>
       <c r="AW10" s="1"/>
       <c r="AX10" s="1"/>
-      <c r="AY10" s="10"/>
+      <c r="AY10" s="1"/>
       <c r="AZ10" s="10"/>
       <c r="BA10" s="10"/>
       <c r="BB10" s="10"/>
@@ -1301,10 +1326,11 @@
       <c r="BL10" s="10"/>
       <c r="BM10" s="10"/>
       <c r="BN10" s="10"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="10"/>
-    </row>
-    <row r="11" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO10" s="10"/>
+      <c r="BP10" s="1"/>
+      <c r="BQ10" s="10"/>
+    </row>
+    <row r="11" spans="1:69" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1314,8 +1340,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="13"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1355,7 +1381,7 @@
       <c r="AV11" s="1"/>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
-      <c r="AY11" s="10"/>
+      <c r="AY11" s="1"/>
       <c r="AZ11" s="10"/>
       <c r="BA11" s="10"/>
       <c r="BB11" s="10"/>
@@ -1371,10 +1397,11 @@
       <c r="BL11" s="10"/>
       <c r="BM11" s="10"/>
       <c r="BN11" s="10"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="10"/>
-    </row>
-    <row r="12" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="1"/>
+      <c r="BQ11" s="10"/>
+    </row>
+    <row r="12" spans="1:69" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1384,8 +1411,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="13"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1425,7 +1452,7 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
       <c r="AX12" s="1"/>
-      <c r="AY12" s="10"/>
+      <c r="AY12" s="1"/>
       <c r="AZ12" s="10"/>
       <c r="BA12" s="10"/>
       <c r="BB12" s="10"/>
@@ -1441,10 +1468,11 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="10"/>
       <c r="BN12" s="10"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="10"/>
-    </row>
-    <row r="13" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO12" s="10"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="10"/>
+    </row>
+    <row r="13" spans="1:69" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1454,8 +1482,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1495,7 +1523,7 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="10"/>
+      <c r="AY13" s="1"/>
       <c r="AZ13" s="10"/>
       <c r="BA13" s="10"/>
       <c r="BB13" s="10"/>
@@ -1511,10 +1539,11 @@
       <c r="BL13" s="10"/>
       <c r="BM13" s="10"/>
       <c r="BN13" s="10"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="10"/>
-    </row>
-    <row r="14" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO13" s="10"/>
+      <c r="BP13" s="1"/>
+      <c r="BQ13" s="10"/>
+    </row>
+    <row r="14" spans="1:69" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1524,8 +1553,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1565,7 +1594,7 @@
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
-      <c r="AY14" s="10"/>
+      <c r="AY14" s="1"/>
       <c r="AZ14" s="10"/>
       <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
@@ -1581,10 +1610,11 @@
       <c r="BL14" s="10"/>
       <c r="BM14" s="10"/>
       <c r="BN14" s="10"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="10"/>
-    </row>
-    <row r="15" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO14" s="10"/>
+      <c r="BP14" s="1"/>
+      <c r="BQ14" s="10"/>
+    </row>
+    <row r="15" spans="1:69" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1594,8 +1624,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="13"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1635,7 +1665,7 @@
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-      <c r="AY15" s="10"/>
+      <c r="AY15" s="1"/>
       <c r="AZ15" s="10"/>
       <c r="BA15" s="10"/>
       <c r="BB15" s="10"/>
@@ -1651,10 +1681,11 @@
       <c r="BL15" s="10"/>
       <c r="BM15" s="10"/>
       <c r="BN15" s="10"/>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="10"/>
-    </row>
-    <row r="16" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO15" s="10"/>
+      <c r="BP15" s="1"/>
+      <c r="BQ15" s="10"/>
+    </row>
+    <row r="16" spans="1:69" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1664,8 +1695,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="13"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1705,7 +1736,7 @@
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="10"/>
+      <c r="AY16" s="1"/>
       <c r="AZ16" s="10"/>
       <c r="BA16" s="10"/>
       <c r="BB16" s="10"/>
@@ -1721,10 +1752,11 @@
       <c r="BL16" s="10"/>
       <c r="BM16" s="10"/>
       <c r="BN16" s="10"/>
-      <c r="BO16" s="1"/>
-      <c r="BP16" s="10"/>
-    </row>
-    <row r="17" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="1"/>
+      <c r="BQ16" s="10"/>
+    </row>
+    <row r="17" spans="1:69" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1734,8 +1766,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="13"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1775,7 +1807,7 @@
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
-      <c r="AY17" s="10"/>
+      <c r="AY17" s="1"/>
       <c r="AZ17" s="10"/>
       <c r="BA17" s="10"/>
       <c r="BB17" s="10"/>
@@ -1791,10 +1823,11 @@
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
       <c r="BN17" s="10"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="10"/>
-    </row>
-    <row r="18" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="1"/>
+      <c r="BQ17" s="10"/>
+    </row>
+    <row r="18" spans="1:69" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1804,8 +1837,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="13"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1845,7 +1878,7 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
-      <c r="AY18" s="10"/>
+      <c r="AY18" s="1"/>
       <c r="AZ18" s="10"/>
       <c r="BA18" s="10"/>
       <c r="BB18" s="10"/>
@@ -1861,10 +1894,11 @@
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
       <c r="BN18" s="10"/>
-      <c r="BO18" s="1"/>
-      <c r="BP18" s="10"/>
-    </row>
-    <row r="19" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO18" s="10"/>
+      <c r="BP18" s="1"/>
+      <c r="BQ18" s="10"/>
+    </row>
+    <row r="19" spans="1:69" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -1874,8 +1908,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="13"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1915,7 +1949,7 @@
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="10"/>
+      <c r="AY19" s="1"/>
       <c r="AZ19" s="10"/>
       <c r="BA19" s="10"/>
       <c r="BB19" s="10"/>
@@ -1931,10 +1965,11 @@
       <c r="BL19" s="10"/>
       <c r="BM19" s="10"/>
       <c r="BN19" s="10"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="10"/>
-    </row>
-    <row r="20" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO19" s="10"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="10"/>
+    </row>
+    <row r="20" spans="1:69" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -1944,8 +1979,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1985,7 +2020,7 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-      <c r="AY20" s="10"/>
+      <c r="AY20" s="1"/>
       <c r="AZ20" s="10"/>
       <c r="BA20" s="10"/>
       <c r="BB20" s="10"/>
@@ -2001,10 +2036,11 @@
       <c r="BL20" s="10"/>
       <c r="BM20" s="10"/>
       <c r="BN20" s="10"/>
-      <c r="BO20" s="1"/>
-      <c r="BP20" s="10"/>
-    </row>
-    <row r="21" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO20" s="10"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="10"/>
+    </row>
+    <row r="21" spans="1:69" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -2014,8 +2050,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="13"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2055,7 +2091,7 @@
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
-      <c r="AY21" s="10"/>
+      <c r="AY21" s="1"/>
       <c r="AZ21" s="10"/>
       <c r="BA21" s="10"/>
       <c r="BB21" s="10"/>
@@ -2071,10 +2107,11 @@
       <c r="BL21" s="10"/>
       <c r="BM21" s="10"/>
       <c r="BN21" s="10"/>
-      <c r="BO21" s="1"/>
-      <c r="BP21" s="10"/>
-    </row>
-    <row r="22" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO21" s="10"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="10"/>
+    </row>
+    <row r="22" spans="1:69" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -2084,8 +2121,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="13"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2125,7 +2162,7 @@
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
-      <c r="AY22" s="10"/>
+      <c r="AY22" s="1"/>
       <c r="AZ22" s="10"/>
       <c r="BA22" s="10"/>
       <c r="BB22" s="10"/>
@@ -2141,10 +2178,11 @@
       <c r="BL22" s="10"/>
       <c r="BM22" s="10"/>
       <c r="BN22" s="10"/>
-      <c r="BO22" s="1"/>
-      <c r="BP22" s="10"/>
-    </row>
-    <row r="23" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO22" s="10"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="10"/>
+    </row>
+    <row r="23" spans="1:69" ht="12.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -2154,8 +2192,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="13"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2195,7 +2233,7 @@
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
-      <c r="AY23" s="10"/>
+      <c r="AY23" s="1"/>
       <c r="AZ23" s="10"/>
       <c r="BA23" s="10"/>
       <c r="BB23" s="10"/>
@@ -2211,10 +2249,11 @@
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
       <c r="BN23" s="10"/>
-      <c r="BO23" s="1"/>
-      <c r="BP23" s="10"/>
-    </row>
-    <row r="24" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO23" s="10"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="10"/>
+    </row>
+    <row r="24" spans="1:69" ht="12.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -2224,8 +2263,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="13"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2265,7 +2304,7 @@
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
-      <c r="AY24" s="10"/>
+      <c r="AY24" s="1"/>
       <c r="AZ24" s="10"/>
       <c r="BA24" s="10"/>
       <c r="BB24" s="10"/>
@@ -2281,10 +2320,11 @@
       <c r="BL24" s="10"/>
       <c r="BM24" s="10"/>
       <c r="BN24" s="10"/>
-      <c r="BO24" s="1"/>
-      <c r="BP24" s="10"/>
-    </row>
-    <row r="25" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO24" s="10"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="10"/>
+    </row>
+    <row r="25" spans="1:69" ht="12.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
@@ -2294,8 +2334,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="13"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2335,7 +2375,7 @@
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
-      <c r="AY25" s="10"/>
+      <c r="AY25" s="1"/>
       <c r="AZ25" s="10"/>
       <c r="BA25" s="10"/>
       <c r="BB25" s="10"/>
@@ -2351,10 +2391,11 @@
       <c r="BL25" s="10"/>
       <c r="BM25" s="10"/>
       <c r="BN25" s="10"/>
-      <c r="BO25" s="1"/>
-      <c r="BP25" s="10"/>
-    </row>
-    <row r="26" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO25" s="10"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="10"/>
+    </row>
+    <row r="26" spans="1:69" ht="12.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -2364,8 +2405,8 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="13"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2405,7 +2446,7 @@
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
-      <c r="AY26" s="10"/>
+      <c r="AY26" s="1"/>
       <c r="AZ26" s="10"/>
       <c r="BA26" s="10"/>
       <c r="BB26" s="10"/>
@@ -2421,10 +2462,11 @@
       <c r="BL26" s="10"/>
       <c r="BM26" s="10"/>
       <c r="BN26" s="10"/>
-      <c r="BO26" s="1"/>
-      <c r="BP26" s="10"/>
-    </row>
-    <row r="27" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO26" s="10"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="10"/>
+    </row>
+    <row r="27" spans="1:69" ht="12.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -2434,8 +2476,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="13"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2475,7 +2517,7 @@
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
-      <c r="AY27" s="10"/>
+      <c r="AY27" s="1"/>
       <c r="AZ27" s="10"/>
       <c r="BA27" s="10"/>
       <c r="BB27" s="10"/>
@@ -2491,10 +2533,11 @@
       <c r="BL27" s="10"/>
       <c r="BM27" s="10"/>
       <c r="BN27" s="10"/>
-      <c r="BO27" s="1"/>
-      <c r="BP27" s="10"/>
-    </row>
-    <row r="28" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO27" s="10"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="10"/>
+    </row>
+    <row r="28" spans="1:69" ht="12.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
@@ -2504,8 +2547,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="13"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2545,7 +2588,7 @@
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
-      <c r="AY28" s="10"/>
+      <c r="AY28" s="1"/>
       <c r="AZ28" s="10"/>
       <c r="BA28" s="10"/>
       <c r="BB28" s="10"/>
@@ -2561,10 +2604,11 @@
       <c r="BL28" s="10"/>
       <c r="BM28" s="10"/>
       <c r="BN28" s="10"/>
-      <c r="BO28" s="1"/>
-      <c r="BP28" s="10"/>
-    </row>
-    <row r="29" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO28" s="10"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="10"/>
+    </row>
+    <row r="29" spans="1:69" ht="12.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
@@ -2574,8 +2618,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2615,7 +2659,7 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
-      <c r="AY29" s="10"/>
+      <c r="AY29" s="1"/>
       <c r="AZ29" s="10"/>
       <c r="BA29" s="10"/>
       <c r="BB29" s="10"/>
@@ -2631,10 +2675,11 @@
       <c r="BL29" s="10"/>
       <c r="BM29" s="10"/>
       <c r="BN29" s="10"/>
-      <c r="BO29" s="1"/>
-      <c r="BP29" s="10"/>
-    </row>
-    <row r="30" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO29" s="10"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="10"/>
+    </row>
+    <row r="30" spans="1:69" ht="12.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -2644,8 +2689,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="13"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2685,7 +2730,7 @@
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
-      <c r="AY30" s="10"/>
+      <c r="AY30" s="1"/>
       <c r="AZ30" s="10"/>
       <c r="BA30" s="10"/>
       <c r="BB30" s="10"/>
@@ -2701,10 +2746,11 @@
       <c r="BL30" s="10"/>
       <c r="BM30" s="10"/>
       <c r="BN30" s="10"/>
-      <c r="BO30" s="1"/>
-      <c r="BP30" s="10"/>
-    </row>
-    <row r="31" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO30" s="10"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="10"/>
+    </row>
+    <row r="31" spans="1:69" ht="12.75" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -2714,8 +2760,8 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="13"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2755,7 +2801,7 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
-      <c r="AY31" s="10"/>
+      <c r="AY31" s="1"/>
       <c r="AZ31" s="10"/>
       <c r="BA31" s="10"/>
       <c r="BB31" s="10"/>
@@ -2771,10 +2817,11 @@
       <c r="BL31" s="10"/>
       <c r="BM31" s="10"/>
       <c r="BN31" s="10"/>
-      <c r="BO31" s="1"/>
-      <c r="BP31" s="10"/>
-    </row>
-    <row r="32" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO31" s="10"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="10"/>
+    </row>
+    <row r="32" spans="1:69" ht="12.75" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -2784,8 +2831,8 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="13"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -2825,7 +2872,7 @@
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
-      <c r="AY32" s="10"/>
+      <c r="AY32" s="1"/>
       <c r="AZ32" s="10"/>
       <c r="BA32" s="10"/>
       <c r="BB32" s="10"/>
@@ -2841,10 +2888,11 @@
       <c r="BL32" s="10"/>
       <c r="BM32" s="10"/>
       <c r="BN32" s="10"/>
-      <c r="BO32" s="1"/>
-      <c r="BP32" s="10"/>
-    </row>
-    <row r="33" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO32" s="10"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="10"/>
+    </row>
+    <row r="33" spans="1:69" ht="12.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
@@ -2854,8 +2902,8 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="13"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -2895,7 +2943,7 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
-      <c r="AY33" s="10"/>
+      <c r="AY33" s="1"/>
       <c r="AZ33" s="10"/>
       <c r="BA33" s="10"/>
       <c r="BB33" s="10"/>
@@ -2911,10 +2959,11 @@
       <c r="BL33" s="10"/>
       <c r="BM33" s="10"/>
       <c r="BN33" s="10"/>
-      <c r="BO33" s="1"/>
-      <c r="BP33" s="10"/>
-    </row>
-    <row r="34" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO33" s="10"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="10"/>
+    </row>
+    <row r="34" spans="1:69" ht="12.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -2924,8 +2973,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2965,7 +3014,7 @@
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
-      <c r="AY34" s="10"/>
+      <c r="AY34" s="1"/>
       <c r="AZ34" s="10"/>
       <c r="BA34" s="10"/>
       <c r="BB34" s="10"/>
@@ -2981,10 +3030,11 @@
       <c r="BL34" s="10"/>
       <c r="BM34" s="10"/>
       <c r="BN34" s="10"/>
-      <c r="BO34" s="1"/>
-      <c r="BP34" s="10"/>
-    </row>
-    <row r="35" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO34" s="10"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="10"/>
+    </row>
+    <row r="35" spans="1:69" ht="12.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
@@ -2994,8 +3044,8 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="13"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -3035,7 +3085,7 @@
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
-      <c r="AY35" s="10"/>
+      <c r="AY35" s="1"/>
       <c r="AZ35" s="10"/>
       <c r="BA35" s="10"/>
       <c r="BB35" s="10"/>
@@ -3051,10 +3101,11 @@
       <c r="BL35" s="10"/>
       <c r="BM35" s="10"/>
       <c r="BN35" s="10"/>
-      <c r="BO35" s="1"/>
-      <c r="BP35" s="10"/>
-    </row>
-    <row r="36" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO35" s="10"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="10"/>
+    </row>
+    <row r="36" spans="1:69" ht="12.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
@@ -3064,8 +3115,8 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3105,7 +3156,7 @@
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
-      <c r="AY36" s="10"/>
+      <c r="AY36" s="1"/>
       <c r="AZ36" s="10"/>
       <c r="BA36" s="10"/>
       <c r="BB36" s="10"/>
@@ -3121,10 +3172,11 @@
       <c r="BL36" s="10"/>
       <c r="BM36" s="10"/>
       <c r="BN36" s="10"/>
-      <c r="BO36" s="1"/>
-      <c r="BP36" s="10"/>
-    </row>
-    <row r="37" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO36" s="10"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="10"/>
+    </row>
+    <row r="37" spans="1:69" ht="12.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
@@ -3134,8 +3186,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="13"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3175,7 +3227,7 @@
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
-      <c r="AY37" s="10"/>
+      <c r="AY37" s="1"/>
       <c r="AZ37" s="10"/>
       <c r="BA37" s="10"/>
       <c r="BB37" s="10"/>
@@ -3191,10 +3243,11 @@
       <c r="BL37" s="10"/>
       <c r="BM37" s="10"/>
       <c r="BN37" s="10"/>
-      <c r="BO37" s="1"/>
-      <c r="BP37" s="10"/>
-    </row>
-    <row r="38" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO37" s="10"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="10"/>
+    </row>
+    <row r="38" spans="1:69" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
@@ -3204,8 +3257,8 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -3245,7 +3298,7 @@
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
-      <c r="AY38" s="10"/>
+      <c r="AY38" s="1"/>
       <c r="AZ38" s="10"/>
       <c r="BA38" s="10"/>
       <c r="BB38" s="10"/>
@@ -3261,10 +3314,11 @@
       <c r="BL38" s="10"/>
       <c r="BM38" s="10"/>
       <c r="BN38" s="10"/>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="10"/>
-    </row>
-    <row r="39" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO38" s="10"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="10"/>
+    </row>
+    <row r="39" spans="1:69" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
@@ -3274,8 +3328,8 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3315,7 +3369,7 @@
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
-      <c r="AY39" s="10"/>
+      <c r="AY39" s="1"/>
       <c r="AZ39" s="10"/>
       <c r="BA39" s="10"/>
       <c r="BB39" s="10"/>
@@ -3331,10 +3385,11 @@
       <c r="BL39" s="10"/>
       <c r="BM39" s="10"/>
       <c r="BN39" s="10"/>
-      <c r="BO39" s="1"/>
-      <c r="BP39" s="10"/>
-    </row>
-    <row r="40" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO39" s="10"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="10"/>
+    </row>
+    <row r="40" spans="1:69" ht="12.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -3344,8 +3399,8 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3385,7 +3440,7 @@
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
-      <c r="AY40" s="10"/>
+      <c r="AY40" s="1"/>
       <c r="AZ40" s="10"/>
       <c r="BA40" s="10"/>
       <c r="BB40" s="10"/>
@@ -3401,10 +3456,11 @@
       <c r="BL40" s="10"/>
       <c r="BM40" s="10"/>
       <c r="BN40" s="10"/>
-      <c r="BO40" s="1"/>
-      <c r="BP40" s="10"/>
-    </row>
-    <row r="41" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO40" s="10"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="10"/>
+    </row>
+    <row r="41" spans="1:69" ht="12.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="8"/>
       <c r="C41" s="9"/>
@@ -3414,8 +3470,8 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3455,7 +3511,7 @@
       <c r="AV41" s="1"/>
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
-      <c r="AY41" s="10"/>
+      <c r="AY41" s="1"/>
       <c r="AZ41" s="10"/>
       <c r="BA41" s="10"/>
       <c r="BB41" s="10"/>
@@ -3471,10 +3527,11 @@
       <c r="BL41" s="10"/>
       <c r="BM41" s="10"/>
       <c r="BN41" s="10"/>
-      <c r="BO41" s="1"/>
-      <c r="BP41" s="10"/>
-    </row>
-    <row r="42" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO41" s="10"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="10"/>
+    </row>
+    <row r="42" spans="1:69" ht="12.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -3484,8 +3541,8 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="13"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -3525,7 +3582,7 @@
       <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
-      <c r="AY42" s="10"/>
+      <c r="AY42" s="1"/>
       <c r="AZ42" s="10"/>
       <c r="BA42" s="10"/>
       <c r="BB42" s="10"/>
@@ -3541,10 +3598,11 @@
       <c r="BL42" s="10"/>
       <c r="BM42" s="10"/>
       <c r="BN42" s="10"/>
-      <c r="BO42" s="1"/>
-      <c r="BP42" s="10"/>
-    </row>
-    <row r="43" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO42" s="10"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="10"/>
+    </row>
+    <row r="43" spans="1:69" ht="12.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="8"/>
       <c r="C43" s="9"/>
@@ -3554,8 +3612,8 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3595,7 +3653,7 @@
       <c r="AV43" s="1"/>
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
-      <c r="AY43" s="10"/>
+      <c r="AY43" s="1"/>
       <c r="AZ43" s="10"/>
       <c r="BA43" s="10"/>
       <c r="BB43" s="10"/>
@@ -3611,10 +3669,11 @@
       <c r="BL43" s="10"/>
       <c r="BM43" s="10"/>
       <c r="BN43" s="10"/>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="10"/>
-    </row>
-    <row r="44" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO43" s="10"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="10"/>
+    </row>
+    <row r="44" spans="1:69" ht="12.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -3624,8 +3683,8 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="13"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3665,7 +3724,7 @@
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
-      <c r="AY44" s="10"/>
+      <c r="AY44" s="1"/>
       <c r="AZ44" s="10"/>
       <c r="BA44" s="10"/>
       <c r="BB44" s="10"/>
@@ -3681,10 +3740,11 @@
       <c r="BL44" s="10"/>
       <c r="BM44" s="10"/>
       <c r="BN44" s="10"/>
-      <c r="BO44" s="1"/>
-      <c r="BP44" s="10"/>
-    </row>
-    <row r="45" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO44" s="10"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="10"/>
+    </row>
+    <row r="45" spans="1:69" ht="12.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
@@ -3694,8 +3754,8 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="13"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3735,7 +3795,7 @@
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
       <c r="AX45" s="1"/>
-      <c r="AY45" s="10"/>
+      <c r="AY45" s="1"/>
       <c r="AZ45" s="10"/>
       <c r="BA45" s="10"/>
       <c r="BB45" s="10"/>
@@ -3751,10 +3811,11 @@
       <c r="BL45" s="10"/>
       <c r="BM45" s="10"/>
       <c r="BN45" s="10"/>
-      <c r="BO45" s="1"/>
-      <c r="BP45" s="10"/>
-    </row>
-    <row r="46" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO45" s="10"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="10"/>
+    </row>
+    <row r="46" spans="1:69" ht="12.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
@@ -3764,8 +3825,8 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="13"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3805,7 +3866,7 @@
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
       <c r="AX46" s="1"/>
-      <c r="AY46" s="10"/>
+      <c r="AY46" s="1"/>
       <c r="AZ46" s="10"/>
       <c r="BA46" s="10"/>
       <c r="BB46" s="10"/>
@@ -3821,10 +3882,11 @@
       <c r="BL46" s="10"/>
       <c r="BM46" s="10"/>
       <c r="BN46" s="10"/>
-      <c r="BO46" s="1"/>
-      <c r="BP46" s="10"/>
-    </row>
-    <row r="47" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO46" s="10"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="10"/>
+    </row>
+    <row r="47" spans="1:69" ht="12.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
@@ -3834,8 +3896,8 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="13"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3875,7 +3937,7 @@
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
       <c r="AX47" s="1"/>
-      <c r="AY47" s="10"/>
+      <c r="AY47" s="1"/>
       <c r="AZ47" s="10"/>
       <c r="BA47" s="10"/>
       <c r="BB47" s="10"/>
@@ -3891,10 +3953,11 @@
       <c r="BL47" s="10"/>
       <c r="BM47" s="10"/>
       <c r="BN47" s="10"/>
-      <c r="BO47" s="1"/>
-      <c r="BP47" s="10"/>
-    </row>
-    <row r="48" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO47" s="10"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="10"/>
+    </row>
+    <row r="48" spans="1:69" ht="12.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -3904,8 +3967,8 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="13"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3945,7 +4008,7 @@
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
       <c r="AX48" s="1"/>
-      <c r="AY48" s="10"/>
+      <c r="AY48" s="1"/>
       <c r="AZ48" s="10"/>
       <c r="BA48" s="10"/>
       <c r="BB48" s="10"/>
@@ -3961,10 +4024,11 @@
       <c r="BL48" s="10"/>
       <c r="BM48" s="10"/>
       <c r="BN48" s="10"/>
-      <c r="BO48" s="1"/>
-      <c r="BP48" s="10"/>
-    </row>
-    <row r="49" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO48" s="10"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="10"/>
+    </row>
+    <row r="49" spans="1:69" ht="12.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
@@ -3974,8 +4038,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="13"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -4015,7 +4079,7 @@
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
       <c r="AX49" s="1"/>
-      <c r="AY49" s="10"/>
+      <c r="AY49" s="1"/>
       <c r="AZ49" s="10"/>
       <c r="BA49" s="10"/>
       <c r="BB49" s="10"/>
@@ -4031,10 +4095,11 @@
       <c r="BL49" s="10"/>
       <c r="BM49" s="10"/>
       <c r="BN49" s="10"/>
-      <c r="BO49" s="1"/>
-      <c r="BP49" s="10"/>
-    </row>
-    <row r="50" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO49" s="10"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="10"/>
+    </row>
+    <row r="50" spans="1:69" ht="12.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="8"/>
       <c r="C50" s="9"/>
@@ -4044,8 +4109,8 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="13"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -4085,7 +4150,7 @@
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
-      <c r="AY50" s="10"/>
+      <c r="AY50" s="1"/>
       <c r="AZ50" s="10"/>
       <c r="BA50" s="10"/>
       <c r="BB50" s="10"/>
@@ -4101,10 +4166,11 @@
       <c r="BL50" s="10"/>
       <c r="BM50" s="10"/>
       <c r="BN50" s="10"/>
-      <c r="BO50" s="1"/>
-      <c r="BP50" s="10"/>
-    </row>
-    <row r="51" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO50" s="10"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="10"/>
+    </row>
+    <row r="51" spans="1:69" ht="12.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -4114,8 +4180,8 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="13"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -4155,7 +4221,7 @@
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
       <c r="AX51" s="1"/>
-      <c r="AY51" s="10"/>
+      <c r="AY51" s="1"/>
       <c r="AZ51" s="10"/>
       <c r="BA51" s="10"/>
       <c r="BB51" s="10"/>
@@ -4171,10 +4237,11 @@
       <c r="BL51" s="10"/>
       <c r="BM51" s="10"/>
       <c r="BN51" s="10"/>
-      <c r="BO51" s="1"/>
-      <c r="BP51" s="10"/>
-    </row>
-    <row r="52" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO51" s="10"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="10"/>
+    </row>
+    <row r="52" spans="1:69" ht="12.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
@@ -4184,8 +4251,8 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="13"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -4225,7 +4292,7 @@
       <c r="AV52" s="1"/>
       <c r="AW52" s="1"/>
       <c r="AX52" s="1"/>
-      <c r="AY52" s="10"/>
+      <c r="AY52" s="1"/>
       <c r="AZ52" s="10"/>
       <c r="BA52" s="10"/>
       <c r="BB52" s="10"/>
@@ -4241,10 +4308,11 @@
       <c r="BL52" s="10"/>
       <c r="BM52" s="10"/>
       <c r="BN52" s="10"/>
-      <c r="BO52" s="1"/>
-      <c r="BP52" s="10"/>
-    </row>
-    <row r="53" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO52" s="10"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="10"/>
+    </row>
+    <row r="53" spans="1:69" ht="12.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
@@ -4254,8 +4322,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="13"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -4295,7 +4363,7 @@
       <c r="AV53" s="1"/>
       <c r="AW53" s="1"/>
       <c r="AX53" s="1"/>
-      <c r="AY53" s="10"/>
+      <c r="AY53" s="1"/>
       <c r="AZ53" s="10"/>
       <c r="BA53" s="10"/>
       <c r="BB53" s="10"/>
@@ -4311,10 +4379,11 @@
       <c r="BL53" s="10"/>
       <c r="BM53" s="10"/>
       <c r="BN53" s="10"/>
-      <c r="BO53" s="1"/>
-      <c r="BP53" s="10"/>
-    </row>
-    <row r="54" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO53" s="10"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="10"/>
+    </row>
+    <row r="54" spans="1:69" ht="12.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -4324,8 +4393,8 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="13"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -4365,7 +4434,7 @@
       <c r="AV54" s="1"/>
       <c r="AW54" s="1"/>
       <c r="AX54" s="1"/>
-      <c r="AY54" s="10"/>
+      <c r="AY54" s="1"/>
       <c r="AZ54" s="10"/>
       <c r="BA54" s="10"/>
       <c r="BB54" s="10"/>
@@ -4381,10 +4450,11 @@
       <c r="BL54" s="10"/>
       <c r="BM54" s="10"/>
       <c r="BN54" s="10"/>
-      <c r="BO54" s="1"/>
-      <c r="BP54" s="10"/>
-    </row>
-    <row r="55" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO54" s="10"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="10"/>
+    </row>
+    <row r="55" spans="1:69" ht="12.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="8"/>
       <c r="C55" s="9"/>
@@ -4394,8 +4464,8 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="13"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -4435,7 +4505,7 @@
       <c r="AV55" s="1"/>
       <c r="AW55" s="1"/>
       <c r="AX55" s="1"/>
-      <c r="AY55" s="10"/>
+      <c r="AY55" s="1"/>
       <c r="AZ55" s="10"/>
       <c r="BA55" s="10"/>
       <c r="BB55" s="10"/>
@@ -4451,10 +4521,11 @@
       <c r="BL55" s="10"/>
       <c r="BM55" s="10"/>
       <c r="BN55" s="10"/>
-      <c r="BO55" s="1"/>
-      <c r="BP55" s="10"/>
-    </row>
-    <row r="56" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO55" s="10"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="10"/>
+    </row>
+    <row r="56" spans="1:69" ht="12.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
@@ -4464,8 +4535,8 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="13"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -4505,7 +4576,7 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
       <c r="AX56" s="1"/>
-      <c r="AY56" s="10"/>
+      <c r="AY56" s="1"/>
       <c r="AZ56" s="10"/>
       <c r="BA56" s="10"/>
       <c r="BB56" s="10"/>
@@ -4521,10 +4592,11 @@
       <c r="BL56" s="10"/>
       <c r="BM56" s="10"/>
       <c r="BN56" s="10"/>
-      <c r="BO56" s="1"/>
-      <c r="BP56" s="10"/>
-    </row>
-    <row r="57" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO56" s="10"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="10"/>
+    </row>
+    <row r="57" spans="1:69" ht="12.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -4534,8 +4606,8 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="13"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -4575,7 +4647,7 @@
       <c r="AV57" s="1"/>
       <c r="AW57" s="1"/>
       <c r="AX57" s="1"/>
-      <c r="AY57" s="10"/>
+      <c r="AY57" s="1"/>
       <c r="AZ57" s="10"/>
       <c r="BA57" s="10"/>
       <c r="BB57" s="10"/>
@@ -4591,10 +4663,11 @@
       <c r="BL57" s="10"/>
       <c r="BM57" s="10"/>
       <c r="BN57" s="10"/>
-      <c r="BO57" s="1"/>
-      <c r="BP57" s="10"/>
-    </row>
-    <row r="58" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO57" s="10"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="10"/>
+    </row>
+    <row r="58" spans="1:69" ht="12.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -4604,8 +4677,8 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="13"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -4645,7 +4718,7 @@
       <c r="AV58" s="1"/>
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
-      <c r="AY58" s="10"/>
+      <c r="AY58" s="1"/>
       <c r="AZ58" s="10"/>
       <c r="BA58" s="10"/>
       <c r="BB58" s="10"/>
@@ -4661,10 +4734,11 @@
       <c r="BL58" s="10"/>
       <c r="BM58" s="10"/>
       <c r="BN58" s="10"/>
-      <c r="BO58" s="1"/>
-      <c r="BP58" s="10"/>
-    </row>
-    <row r="59" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO58" s="10"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="10"/>
+    </row>
+    <row r="59" spans="1:69" ht="12.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
@@ -4674,8 +4748,8 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="13"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -4715,7 +4789,7 @@
       <c r="AV59" s="1"/>
       <c r="AW59" s="1"/>
       <c r="AX59" s="1"/>
-      <c r="AY59" s="10"/>
+      <c r="AY59" s="1"/>
       <c r="AZ59" s="10"/>
       <c r="BA59" s="10"/>
       <c r="BB59" s="10"/>
@@ -4731,10 +4805,11 @@
       <c r="BL59" s="10"/>
       <c r="BM59" s="10"/>
       <c r="BN59" s="10"/>
-      <c r="BO59" s="1"/>
-      <c r="BP59" s="10"/>
-    </row>
-    <row r="60" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO59" s="10"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="10"/>
+    </row>
+    <row r="60" spans="1:69" ht="12.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -4744,8 +4819,8 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="13"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -4785,7 +4860,7 @@
       <c r="AV60" s="1"/>
       <c r="AW60" s="1"/>
       <c r="AX60" s="1"/>
-      <c r="AY60" s="10"/>
+      <c r="AY60" s="1"/>
       <c r="AZ60" s="10"/>
       <c r="BA60" s="10"/>
       <c r="BB60" s="10"/>
@@ -4801,10 +4876,11 @@
       <c r="BL60" s="10"/>
       <c r="BM60" s="10"/>
       <c r="BN60" s="10"/>
-      <c r="BO60" s="1"/>
-      <c r="BP60" s="10"/>
-    </row>
-    <row r="61" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO60" s="10"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="10"/>
+    </row>
+    <row r="61" spans="1:69" ht="12.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -4814,8 +4890,8 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="13"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -4855,7 +4931,7 @@
       <c r="AV61" s="1"/>
       <c r="AW61" s="1"/>
       <c r="AX61" s="1"/>
-      <c r="AY61" s="10"/>
+      <c r="AY61" s="1"/>
       <c r="AZ61" s="10"/>
       <c r="BA61" s="10"/>
       <c r="BB61" s="10"/>
@@ -4871,10 +4947,11 @@
       <c r="BL61" s="10"/>
       <c r="BM61" s="10"/>
       <c r="BN61" s="10"/>
-      <c r="BO61" s="1"/>
-      <c r="BP61" s="10"/>
-    </row>
-    <row r="62" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO61" s="10"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="10"/>
+    </row>
+    <row r="62" spans="1:69" ht="12.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
@@ -4884,8 +4961,8 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="13"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -4925,7 +5002,7 @@
       <c r="AV62" s="1"/>
       <c r="AW62" s="1"/>
       <c r="AX62" s="1"/>
-      <c r="AY62" s="10"/>
+      <c r="AY62" s="1"/>
       <c r="AZ62" s="10"/>
       <c r="BA62" s="10"/>
       <c r="BB62" s="10"/>
@@ -4941,10 +5018,11 @@
       <c r="BL62" s="10"/>
       <c r="BM62" s="10"/>
       <c r="BN62" s="10"/>
-      <c r="BO62" s="1"/>
-      <c r="BP62" s="10"/>
-    </row>
-    <row r="63" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO62" s="10"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="10"/>
+    </row>
+    <row r="63" spans="1:69" ht="12.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="8"/>
       <c r="C63" s="9"/>
@@ -4954,8 +5032,8 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="13"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -4995,7 +5073,7 @@
       <c r="AV63" s="1"/>
       <c r="AW63" s="1"/>
       <c r="AX63" s="1"/>
-      <c r="AY63" s="10"/>
+      <c r="AY63" s="1"/>
       <c r="AZ63" s="10"/>
       <c r="BA63" s="10"/>
       <c r="BB63" s="10"/>
@@ -5011,10 +5089,11 @@
       <c r="BL63" s="10"/>
       <c r="BM63" s="10"/>
       <c r="BN63" s="10"/>
-      <c r="BO63" s="1"/>
-      <c r="BP63" s="10"/>
-    </row>
-    <row r="64" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO63" s="10"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="10"/>
+    </row>
+    <row r="64" spans="1:69" ht="12.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
@@ -5024,8 +5103,8 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="13"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -5065,7 +5144,7 @@
       <c r="AV64" s="1"/>
       <c r="AW64" s="1"/>
       <c r="AX64" s="1"/>
-      <c r="AY64" s="10"/>
+      <c r="AY64" s="1"/>
       <c r="AZ64" s="10"/>
       <c r="BA64" s="10"/>
       <c r="BB64" s="10"/>
@@ -5081,10 +5160,11 @@
       <c r="BL64" s="10"/>
       <c r="BM64" s="10"/>
       <c r="BN64" s="10"/>
-      <c r="BO64" s="1"/>
-      <c r="BP64" s="10"/>
-    </row>
-    <row r="65" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO64" s="10"/>
+      <c r="BP64" s="1"/>
+      <c r="BQ64" s="10"/>
+    </row>
+    <row r="65" spans="1:69" ht="12.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="8"/>
       <c r="C65" s="9"/>
@@ -5094,8 +5174,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="13"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -5135,7 +5215,7 @@
       <c r="AV65" s="1"/>
       <c r="AW65" s="1"/>
       <c r="AX65" s="1"/>
-      <c r="AY65" s="10"/>
+      <c r="AY65" s="1"/>
       <c r="AZ65" s="10"/>
       <c r="BA65" s="10"/>
       <c r="BB65" s="10"/>
@@ -5151,10 +5231,11 @@
       <c r="BL65" s="10"/>
       <c r="BM65" s="10"/>
       <c r="BN65" s="10"/>
-      <c r="BO65" s="1"/>
-      <c r="BP65" s="10"/>
-    </row>
-    <row r="66" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO65" s="10"/>
+      <c r="BP65" s="1"/>
+      <c r="BQ65" s="10"/>
+    </row>
+    <row r="66" spans="1:69" ht="12.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="8"/>
       <c r="C66" s="9"/>
@@ -5164,8 +5245,8 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="13"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -5205,7 +5286,7 @@
       <c r="AV66" s="1"/>
       <c r="AW66" s="1"/>
       <c r="AX66" s="1"/>
-      <c r="AY66" s="10"/>
+      <c r="AY66" s="1"/>
       <c r="AZ66" s="10"/>
       <c r="BA66" s="10"/>
       <c r="BB66" s="10"/>
@@ -5221,10 +5302,11 @@
       <c r="BL66" s="10"/>
       <c r="BM66" s="10"/>
       <c r="BN66" s="10"/>
-      <c r="BO66" s="1"/>
-      <c r="BP66" s="10"/>
-    </row>
-    <row r="67" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO66" s="10"/>
+      <c r="BP66" s="1"/>
+      <c r="BQ66" s="10"/>
+    </row>
+    <row r="67" spans="1:69" ht="12.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="8"/>
       <c r="C67" s="9"/>
@@ -5234,8 +5316,8 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="13"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -5275,7 +5357,7 @@
       <c r="AV67" s="1"/>
       <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
-      <c r="AY67" s="10"/>
+      <c r="AY67" s="1"/>
       <c r="AZ67" s="10"/>
       <c r="BA67" s="10"/>
       <c r="BB67" s="10"/>
@@ -5291,10 +5373,11 @@
       <c r="BL67" s="10"/>
       <c r="BM67" s="10"/>
       <c r="BN67" s="10"/>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="10"/>
-    </row>
-    <row r="68" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO67" s="10"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="10"/>
+    </row>
+    <row r="68" spans="1:69" ht="12.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="8"/>
       <c r="C68" s="9"/>
@@ -5304,8 +5387,8 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="13"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -5345,7 +5428,7 @@
       <c r="AV68" s="1"/>
       <c r="AW68" s="1"/>
       <c r="AX68" s="1"/>
-      <c r="AY68" s="10"/>
+      <c r="AY68" s="1"/>
       <c r="AZ68" s="10"/>
       <c r="BA68" s="10"/>
       <c r="BB68" s="10"/>
@@ -5361,10 +5444,11 @@
       <c r="BL68" s="10"/>
       <c r="BM68" s="10"/>
       <c r="BN68" s="10"/>
-      <c r="BO68" s="1"/>
-      <c r="BP68" s="10"/>
-    </row>
-    <row r="69" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO68" s="10"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="10"/>
+    </row>
+    <row r="69" spans="1:69" ht="12.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
@@ -5374,8 +5458,8 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="13"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -5415,7 +5499,7 @@
       <c r="AV69" s="1"/>
       <c r="AW69" s="1"/>
       <c r="AX69" s="1"/>
-      <c r="AY69" s="10"/>
+      <c r="AY69" s="1"/>
       <c r="AZ69" s="10"/>
       <c r="BA69" s="10"/>
       <c r="BB69" s="10"/>
@@ -5431,10 +5515,11 @@
       <c r="BL69" s="10"/>
       <c r="BM69" s="10"/>
       <c r="BN69" s="10"/>
-      <c r="BO69" s="1"/>
-      <c r="BP69" s="10"/>
-    </row>
-    <row r="70" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO69" s="10"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="10"/>
+    </row>
+    <row r="70" spans="1:69" ht="12.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
@@ -5444,8 +5529,8 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="13"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -5485,7 +5570,7 @@
       <c r="AV70" s="1"/>
       <c r="AW70" s="1"/>
       <c r="AX70" s="1"/>
-      <c r="AY70" s="10"/>
+      <c r="AY70" s="1"/>
       <c r="AZ70" s="10"/>
       <c r="BA70" s="10"/>
       <c r="BB70" s="10"/>
@@ -5501,10 +5586,11 @@
       <c r="BL70" s="10"/>
       <c r="BM70" s="10"/>
       <c r="BN70" s="10"/>
-      <c r="BO70" s="1"/>
-      <c r="BP70" s="10"/>
-    </row>
-    <row r="71" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO70" s="10"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="10"/>
+    </row>
+    <row r="71" spans="1:69" ht="12.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
@@ -5514,8 +5600,8 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="13"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -5555,7 +5641,7 @@
       <c r="AV71" s="1"/>
       <c r="AW71" s="1"/>
       <c r="AX71" s="1"/>
-      <c r="AY71" s="10"/>
+      <c r="AY71" s="1"/>
       <c r="AZ71" s="10"/>
       <c r="BA71" s="10"/>
       <c r="BB71" s="10"/>
@@ -5571,10 +5657,11 @@
       <c r="BL71" s="10"/>
       <c r="BM71" s="10"/>
       <c r="BN71" s="10"/>
-      <c r="BO71" s="1"/>
-      <c r="BP71" s="10"/>
-    </row>
-    <row r="72" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO71" s="10"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="10"/>
+    </row>
+    <row r="72" spans="1:69" ht="12.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
@@ -5584,8 +5671,8 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="13"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -5625,7 +5712,7 @@
       <c r="AV72" s="1"/>
       <c r="AW72" s="1"/>
       <c r="AX72" s="1"/>
-      <c r="AY72" s="10"/>
+      <c r="AY72" s="1"/>
       <c r="AZ72" s="10"/>
       <c r="BA72" s="10"/>
       <c r="BB72" s="10"/>
@@ -5641,10 +5728,11 @@
       <c r="BL72" s="10"/>
       <c r="BM72" s="10"/>
       <c r="BN72" s="10"/>
-      <c r="BO72" s="1"/>
-      <c r="BP72" s="10"/>
-    </row>
-    <row r="73" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO72" s="10"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="10"/>
+    </row>
+    <row r="73" spans="1:69" ht="12.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
@@ -5654,8 +5742,8 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="13"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -5695,7 +5783,7 @@
       <c r="AV73" s="1"/>
       <c r="AW73" s="1"/>
       <c r="AX73" s="1"/>
-      <c r="AY73" s="10"/>
+      <c r="AY73" s="1"/>
       <c r="AZ73" s="10"/>
       <c r="BA73" s="10"/>
       <c r="BB73" s="10"/>
@@ -5711,10 +5799,11 @@
       <c r="BL73" s="10"/>
       <c r="BM73" s="10"/>
       <c r="BN73" s="10"/>
-      <c r="BO73" s="1"/>
-      <c r="BP73" s="10"/>
-    </row>
-    <row r="74" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO73" s="10"/>
+      <c r="BP73" s="1"/>
+      <c r="BQ73" s="10"/>
+    </row>
+    <row r="74" spans="1:69" ht="12.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="8"/>
       <c r="C74" s="9"/>
@@ -5724,8 +5813,8 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="13"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -5765,7 +5854,7 @@
       <c r="AV74" s="1"/>
       <c r="AW74" s="1"/>
       <c r="AX74" s="1"/>
-      <c r="AY74" s="10"/>
+      <c r="AY74" s="1"/>
       <c r="AZ74" s="10"/>
       <c r="BA74" s="10"/>
       <c r="BB74" s="10"/>
@@ -5781,10 +5870,11 @@
       <c r="BL74" s="10"/>
       <c r="BM74" s="10"/>
       <c r="BN74" s="10"/>
-      <c r="BO74" s="1"/>
-      <c r="BP74" s="10"/>
-    </row>
-    <row r="75" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO74" s="10"/>
+      <c r="BP74" s="1"/>
+      <c r="BQ74" s="10"/>
+    </row>
+    <row r="75" spans="1:69" ht="12.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="8"/>
       <c r="C75" s="9"/>
@@ -5794,8 +5884,8 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="13"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -5835,7 +5925,7 @@
       <c r="AV75" s="1"/>
       <c r="AW75" s="1"/>
       <c r="AX75" s="1"/>
-      <c r="AY75" s="10"/>
+      <c r="AY75" s="1"/>
       <c r="AZ75" s="10"/>
       <c r="BA75" s="10"/>
       <c r="BB75" s="10"/>
@@ -5851,10 +5941,11 @@
       <c r="BL75" s="10"/>
       <c r="BM75" s="10"/>
       <c r="BN75" s="10"/>
-      <c r="BO75" s="1"/>
-      <c r="BP75" s="10"/>
-    </row>
-    <row r="76" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO75" s="10"/>
+      <c r="BP75" s="1"/>
+      <c r="BQ75" s="10"/>
+    </row>
+    <row r="76" spans="1:69" ht="12.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="8"/>
       <c r="C76" s="9"/>
@@ -5864,8 +5955,8 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="13"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -5905,7 +5996,7 @@
       <c r="AV76" s="1"/>
       <c r="AW76" s="1"/>
       <c r="AX76" s="1"/>
-      <c r="AY76" s="10"/>
+      <c r="AY76" s="1"/>
       <c r="AZ76" s="10"/>
       <c r="BA76" s="10"/>
       <c r="BB76" s="10"/>
@@ -5921,10 +6012,11 @@
       <c r="BL76" s="10"/>
       <c r="BM76" s="10"/>
       <c r="BN76" s="10"/>
-      <c r="BO76" s="1"/>
-      <c r="BP76" s="10"/>
-    </row>
-    <row r="77" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO76" s="10"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="10"/>
+    </row>
+    <row r="77" spans="1:69" ht="12.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="8"/>
       <c r="C77" s="9"/>
@@ -5934,8 +6026,8 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="13"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -5975,7 +6067,7 @@
       <c r="AV77" s="1"/>
       <c r="AW77" s="1"/>
       <c r="AX77" s="1"/>
-      <c r="AY77" s="10"/>
+      <c r="AY77" s="1"/>
       <c r="AZ77" s="10"/>
       <c r="BA77" s="10"/>
       <c r="BB77" s="10"/>
@@ -5991,10 +6083,11 @@
       <c r="BL77" s="10"/>
       <c r="BM77" s="10"/>
       <c r="BN77" s="10"/>
-      <c r="BO77" s="1"/>
-      <c r="BP77" s="10"/>
-    </row>
-    <row r="78" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO77" s="10"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="10"/>
+    </row>
+    <row r="78" spans="1:69" ht="12.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="8"/>
       <c r="C78" s="9"/>
@@ -6004,8 +6097,8 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="13"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -6045,7 +6138,7 @@
       <c r="AV78" s="1"/>
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
-      <c r="AY78" s="10"/>
+      <c r="AY78" s="1"/>
       <c r="AZ78" s="10"/>
       <c r="BA78" s="10"/>
       <c r="BB78" s="10"/>
@@ -6061,10 +6154,11 @@
       <c r="BL78" s="10"/>
       <c r="BM78" s="10"/>
       <c r="BN78" s="10"/>
-      <c r="BO78" s="1"/>
-      <c r="BP78" s="10"/>
-    </row>
-    <row r="79" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO78" s="10"/>
+      <c r="BP78" s="1"/>
+      <c r="BQ78" s="10"/>
+    </row>
+    <row r="79" spans="1:69" ht="12.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
@@ -6074,8 +6168,8 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="13"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -6115,7 +6209,7 @@
       <c r="AV79" s="1"/>
       <c r="AW79" s="1"/>
       <c r="AX79" s="1"/>
-      <c r="AY79" s="10"/>
+      <c r="AY79" s="1"/>
       <c r="AZ79" s="10"/>
       <c r="BA79" s="10"/>
       <c r="BB79" s="10"/>
@@ -6131,10 +6225,11 @@
       <c r="BL79" s="10"/>
       <c r="BM79" s="10"/>
       <c r="BN79" s="10"/>
-      <c r="BO79" s="1"/>
-      <c r="BP79" s="10"/>
-    </row>
-    <row r="80" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO79" s="10"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="10"/>
+    </row>
+    <row r="80" spans="1:69" ht="12.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
@@ -6144,8 +6239,8 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="13"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -6185,7 +6280,7 @@
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
-      <c r="AY80" s="10"/>
+      <c r="AY80" s="1"/>
       <c r="AZ80" s="10"/>
       <c r="BA80" s="10"/>
       <c r="BB80" s="10"/>
@@ -6201,10 +6296,11 @@
       <c r="BL80" s="10"/>
       <c r="BM80" s="10"/>
       <c r="BN80" s="10"/>
-      <c r="BO80" s="1"/>
-      <c r="BP80" s="10"/>
-    </row>
-    <row r="81" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO80" s="10"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="10"/>
+    </row>
+    <row r="81" spans="1:69" ht="12.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
@@ -6214,8 +6310,8 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="13"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -6255,7 +6351,7 @@
       <c r="AV81" s="1"/>
       <c r="AW81" s="1"/>
       <c r="AX81" s="1"/>
-      <c r="AY81" s="10"/>
+      <c r="AY81" s="1"/>
       <c r="AZ81" s="10"/>
       <c r="BA81" s="10"/>
       <c r="BB81" s="10"/>
@@ -6271,10 +6367,11 @@
       <c r="BL81" s="10"/>
       <c r="BM81" s="10"/>
       <c r="BN81" s="10"/>
-      <c r="BO81" s="1"/>
-      <c r="BP81" s="10"/>
-    </row>
-    <row r="82" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO81" s="10"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="10"/>
+    </row>
+    <row r="82" spans="1:69" ht="12.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9"/>
@@ -6284,8 +6381,8 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="13"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -6325,7 +6422,7 @@
       <c r="AV82" s="1"/>
       <c r="AW82" s="1"/>
       <c r="AX82" s="1"/>
-      <c r="AY82" s="10"/>
+      <c r="AY82" s="1"/>
       <c r="AZ82" s="10"/>
       <c r="BA82" s="10"/>
       <c r="BB82" s="10"/>
@@ -6341,10 +6438,11 @@
       <c r="BL82" s="10"/>
       <c r="BM82" s="10"/>
       <c r="BN82" s="10"/>
-      <c r="BO82" s="1"/>
-      <c r="BP82" s="10"/>
-    </row>
-    <row r="83" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO82" s="10"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="10"/>
+    </row>
+    <row r="83" spans="1:69" ht="12.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="8"/>
       <c r="C83" s="9"/>
@@ -6354,8 +6452,8 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="13"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -6395,7 +6493,7 @@
       <c r="AV83" s="1"/>
       <c r="AW83" s="1"/>
       <c r="AX83" s="1"/>
-      <c r="AY83" s="10"/>
+      <c r="AY83" s="1"/>
       <c r="AZ83" s="10"/>
       <c r="BA83" s="10"/>
       <c r="BB83" s="10"/>
@@ -6411,10 +6509,11 @@
       <c r="BL83" s="10"/>
       <c r="BM83" s="10"/>
       <c r="BN83" s="10"/>
-      <c r="BO83" s="1"/>
-      <c r="BP83" s="10"/>
-    </row>
-    <row r="84" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO83" s="10"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="10"/>
+    </row>
+    <row r="84" spans="1:69" ht="12.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9"/>
@@ -6424,8 +6523,8 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="13"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -6465,7 +6564,7 @@
       <c r="AV84" s="1"/>
       <c r="AW84" s="1"/>
       <c r="AX84" s="1"/>
-      <c r="AY84" s="10"/>
+      <c r="AY84" s="1"/>
       <c r="AZ84" s="10"/>
       <c r="BA84" s="10"/>
       <c r="BB84" s="10"/>
@@ -6481,10 +6580,11 @@
       <c r="BL84" s="10"/>
       <c r="BM84" s="10"/>
       <c r="BN84" s="10"/>
-      <c r="BO84" s="1"/>
-      <c r="BP84" s="10"/>
-    </row>
-    <row r="85" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO84" s="10"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="10"/>
+    </row>
+    <row r="85" spans="1:69" ht="12.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="8"/>
       <c r="C85" s="9"/>
@@ -6494,8 +6594,8 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="13"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -6535,7 +6635,7 @@
       <c r="AV85" s="1"/>
       <c r="AW85" s="1"/>
       <c r="AX85" s="1"/>
-      <c r="AY85" s="10"/>
+      <c r="AY85" s="1"/>
       <c r="AZ85" s="10"/>
       <c r="BA85" s="10"/>
       <c r="BB85" s="10"/>
@@ -6551,10 +6651,11 @@
       <c r="BL85" s="10"/>
       <c r="BM85" s="10"/>
       <c r="BN85" s="10"/>
-      <c r="BO85" s="1"/>
-      <c r="BP85" s="10"/>
-    </row>
-    <row r="86" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO85" s="10"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="10"/>
+    </row>
+    <row r="86" spans="1:69" ht="12.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="8"/>
       <c r="C86" s="9"/>
@@ -6564,8 +6665,8 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="13"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -6605,7 +6706,7 @@
       <c r="AV86" s="1"/>
       <c r="AW86" s="1"/>
       <c r="AX86" s="1"/>
-      <c r="AY86" s="10"/>
+      <c r="AY86" s="1"/>
       <c r="AZ86" s="10"/>
       <c r="BA86" s="10"/>
       <c r="BB86" s="10"/>
@@ -6621,10 +6722,11 @@
       <c r="BL86" s="10"/>
       <c r="BM86" s="10"/>
       <c r="BN86" s="10"/>
-      <c r="BO86" s="1"/>
-      <c r="BP86" s="10"/>
-    </row>
-    <row r="87" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO86" s="10"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="10"/>
+    </row>
+    <row r="87" spans="1:69" ht="12.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="8"/>
       <c r="C87" s="9"/>
@@ -6634,8 +6736,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="13"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -6675,7 +6777,7 @@
       <c r="AV87" s="1"/>
       <c r="AW87" s="1"/>
       <c r="AX87" s="1"/>
-      <c r="AY87" s="10"/>
+      <c r="AY87" s="1"/>
       <c r="AZ87" s="10"/>
       <c r="BA87" s="10"/>
       <c r="BB87" s="10"/>
@@ -6691,10 +6793,11 @@
       <c r="BL87" s="10"/>
       <c r="BM87" s="10"/>
       <c r="BN87" s="10"/>
-      <c r="BO87" s="1"/>
-      <c r="BP87" s="10"/>
-    </row>
-    <row r="88" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO87" s="10"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="10"/>
+    </row>
+    <row r="88" spans="1:69" ht="12.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="9"/>
@@ -6704,8 +6807,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="13"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -6745,7 +6848,7 @@
       <c r="AV88" s="1"/>
       <c r="AW88" s="1"/>
       <c r="AX88" s="1"/>
-      <c r="AY88" s="10"/>
+      <c r="AY88" s="1"/>
       <c r="AZ88" s="10"/>
       <c r="BA88" s="10"/>
       <c r="BB88" s="10"/>
@@ -6761,10 +6864,11 @@
       <c r="BL88" s="10"/>
       <c r="BM88" s="10"/>
       <c r="BN88" s="10"/>
-      <c r="BO88" s="1"/>
-      <c r="BP88" s="10"/>
-    </row>
-    <row r="89" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO88" s="10"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="10"/>
+    </row>
+    <row r="89" spans="1:69" ht="12.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9"/>
@@ -6774,8 +6878,8 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="13"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -6815,7 +6919,7 @@
       <c r="AV89" s="1"/>
       <c r="AW89" s="1"/>
       <c r="AX89" s="1"/>
-      <c r="AY89" s="10"/>
+      <c r="AY89" s="1"/>
       <c r="AZ89" s="10"/>
       <c r="BA89" s="10"/>
       <c r="BB89" s="10"/>
@@ -6831,10 +6935,11 @@
       <c r="BL89" s="10"/>
       <c r="BM89" s="10"/>
       <c r="BN89" s="10"/>
-      <c r="BO89" s="1"/>
-      <c r="BP89" s="10"/>
-    </row>
-    <row r="90" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO89" s="10"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="10"/>
+    </row>
+    <row r="90" spans="1:69" ht="12.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9"/>
@@ -6844,8 +6949,8 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="13"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -6885,7 +6990,7 @@
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
       <c r="AX90" s="1"/>
-      <c r="AY90" s="10"/>
+      <c r="AY90" s="1"/>
       <c r="AZ90" s="10"/>
       <c r="BA90" s="10"/>
       <c r="BB90" s="10"/>
@@ -6901,10 +7006,11 @@
       <c r="BL90" s="10"/>
       <c r="BM90" s="10"/>
       <c r="BN90" s="10"/>
-      <c r="BO90" s="1"/>
-      <c r="BP90" s="10"/>
-    </row>
-    <row r="91" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO90" s="10"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="10"/>
+    </row>
+    <row r="91" spans="1:69" ht="12.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9"/>
@@ -6914,8 +7020,8 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="13"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -6955,7 +7061,7 @@
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
       <c r="AX91" s="1"/>
-      <c r="AY91" s="10"/>
+      <c r="AY91" s="1"/>
       <c r="AZ91" s="10"/>
       <c r="BA91" s="10"/>
       <c r="BB91" s="10"/>
@@ -6971,10 +7077,11 @@
       <c r="BL91" s="10"/>
       <c r="BM91" s="10"/>
       <c r="BN91" s="10"/>
-      <c r="BO91" s="1"/>
-      <c r="BP91" s="10"/>
-    </row>
-    <row r="92" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO91" s="10"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="10"/>
+    </row>
+    <row r="92" spans="1:69" ht="12.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
       <c r="C92" s="9"/>
@@ -6984,8 +7091,8 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="13"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -7025,7 +7132,7 @@
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
       <c r="AX92" s="1"/>
-      <c r="AY92" s="10"/>
+      <c r="AY92" s="1"/>
       <c r="AZ92" s="10"/>
       <c r="BA92" s="10"/>
       <c r="BB92" s="10"/>
@@ -7041,10 +7148,11 @@
       <c r="BL92" s="10"/>
       <c r="BM92" s="10"/>
       <c r="BN92" s="10"/>
-      <c r="BO92" s="1"/>
-      <c r="BP92" s="10"/>
-    </row>
-    <row r="93" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO92" s="10"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="10"/>
+    </row>
+    <row r="93" spans="1:69" ht="12.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9"/>
@@ -7054,8 +7162,8 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="13"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -7095,7 +7203,7 @@
       <c r="AV93" s="1"/>
       <c r="AW93" s="1"/>
       <c r="AX93" s="1"/>
-      <c r="AY93" s="10"/>
+      <c r="AY93" s="1"/>
       <c r="AZ93" s="10"/>
       <c r="BA93" s="10"/>
       <c r="BB93" s="10"/>
@@ -7111,10 +7219,11 @@
       <c r="BL93" s="10"/>
       <c r="BM93" s="10"/>
       <c r="BN93" s="10"/>
-      <c r="BO93" s="1"/>
-      <c r="BP93" s="10"/>
-    </row>
-    <row r="94" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO93" s="10"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="10"/>
+    </row>
+    <row r="94" spans="1:69" ht="12.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
       <c r="C94" s="9"/>
@@ -7124,8 +7233,8 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="13"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -7165,7 +7274,7 @@
       <c r="AV94" s="1"/>
       <c r="AW94" s="1"/>
       <c r="AX94" s="1"/>
-      <c r="AY94" s="10"/>
+      <c r="AY94" s="1"/>
       <c r="AZ94" s="10"/>
       <c r="BA94" s="10"/>
       <c r="BB94" s="10"/>
@@ -7181,10 +7290,11 @@
       <c r="BL94" s="10"/>
       <c r="BM94" s="10"/>
       <c r="BN94" s="10"/>
-      <c r="BO94" s="1"/>
-      <c r="BP94" s="10"/>
-    </row>
-    <row r="95" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO94" s="10"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="10"/>
+    </row>
+    <row r="95" spans="1:69" ht="12.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9"/>
@@ -7194,8 +7304,8 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="13"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -7235,7 +7345,7 @@
       <c r="AV95" s="1"/>
       <c r="AW95" s="1"/>
       <c r="AX95" s="1"/>
-      <c r="AY95" s="10"/>
+      <c r="AY95" s="1"/>
       <c r="AZ95" s="10"/>
       <c r="BA95" s="10"/>
       <c r="BB95" s="10"/>
@@ -7251,10 +7361,11 @@
       <c r="BL95" s="10"/>
       <c r="BM95" s="10"/>
       <c r="BN95" s="10"/>
-      <c r="BO95" s="1"/>
-      <c r="BP95" s="10"/>
-    </row>
-    <row r="96" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO95" s="10"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="10"/>
+    </row>
+    <row r="96" spans="1:69" ht="12.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9"/>
@@ -7264,8 +7375,8 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="13"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -7305,7 +7416,7 @@
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
       <c r="AX96" s="1"/>
-      <c r="AY96" s="10"/>
+      <c r="AY96" s="1"/>
       <c r="AZ96" s="10"/>
       <c r="BA96" s="10"/>
       <c r="BB96" s="10"/>
@@ -7321,10 +7432,11 @@
       <c r="BL96" s="10"/>
       <c r="BM96" s="10"/>
       <c r="BN96" s="10"/>
-      <c r="BO96" s="1"/>
-      <c r="BP96" s="10"/>
-    </row>
-    <row r="97" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO96" s="10"/>
+      <c r="BP96" s="1"/>
+      <c r="BQ96" s="10"/>
+    </row>
+    <row r="97" spans="1:69" ht="12.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="8"/>
       <c r="C97" s="9"/>
@@ -7334,8 +7446,8 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="13"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -7375,7 +7487,7 @@
       <c r="AV97" s="1"/>
       <c r="AW97" s="1"/>
       <c r="AX97" s="1"/>
-      <c r="AY97" s="10"/>
+      <c r="AY97" s="1"/>
       <c r="AZ97" s="10"/>
       <c r="BA97" s="10"/>
       <c r="BB97" s="10"/>
@@ -7391,10 +7503,11 @@
       <c r="BL97" s="10"/>
       <c r="BM97" s="10"/>
       <c r="BN97" s="10"/>
-      <c r="BO97" s="1"/>
-      <c r="BP97" s="10"/>
-    </row>
-    <row r="98" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO97" s="10"/>
+      <c r="BP97" s="1"/>
+      <c r="BQ97" s="10"/>
+    </row>
+    <row r="98" spans="1:69" ht="12.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="8"/>
       <c r="C98" s="9"/>
@@ -7404,8 +7517,8 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="13"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -7445,7 +7558,7 @@
       <c r="AV98" s="1"/>
       <c r="AW98" s="1"/>
       <c r="AX98" s="1"/>
-      <c r="AY98" s="10"/>
+      <c r="AY98" s="1"/>
       <c r="AZ98" s="10"/>
       <c r="BA98" s="10"/>
       <c r="BB98" s="10"/>
@@ -7461,10 +7574,11 @@
       <c r="BL98" s="10"/>
       <c r="BM98" s="10"/>
       <c r="BN98" s="10"/>
-      <c r="BO98" s="1"/>
-      <c r="BP98" s="10"/>
-    </row>
-    <row r="99" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO98" s="10"/>
+      <c r="BP98" s="1"/>
+      <c r="BQ98" s="10"/>
+    </row>
+    <row r="99" spans="1:69" ht="12.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="8"/>
       <c r="C99" s="9"/>
@@ -7474,8 +7588,8 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="13"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -7515,7 +7629,7 @@
       <c r="AV99" s="1"/>
       <c r="AW99" s="1"/>
       <c r="AX99" s="1"/>
-      <c r="AY99" s="10"/>
+      <c r="AY99" s="1"/>
       <c r="AZ99" s="10"/>
       <c r="BA99" s="10"/>
       <c r="BB99" s="10"/>
@@ -7531,10 +7645,11 @@
       <c r="BL99" s="10"/>
       <c r="BM99" s="10"/>
       <c r="BN99" s="10"/>
-      <c r="BO99" s="1"/>
-      <c r="BP99" s="10"/>
-    </row>
-    <row r="100" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO99" s="10"/>
+      <c r="BP99" s="1"/>
+      <c r="BQ99" s="10"/>
+    </row>
+    <row r="100" spans="1:69" ht="12.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="8"/>
       <c r="C100" s="9"/>
@@ -7544,8 +7659,8 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="13"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -7585,7 +7700,7 @@
       <c r="AV100" s="1"/>
       <c r="AW100" s="1"/>
       <c r="AX100" s="1"/>
-      <c r="AY100" s="10"/>
+      <c r="AY100" s="1"/>
       <c r="AZ100" s="10"/>
       <c r="BA100" s="10"/>
       <c r="BB100" s="10"/>
@@ -7601,10 +7716,11 @@
       <c r="BL100" s="10"/>
       <c r="BM100" s="10"/>
       <c r="BN100" s="10"/>
-      <c r="BO100" s="1"/>
-      <c r="BP100" s="10"/>
-    </row>
-    <row r="101" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO100" s="10"/>
+      <c r="BP100" s="1"/>
+      <c r="BQ100" s="10"/>
+    </row>
+    <row r="101" spans="1:69" ht="12.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="8"/>
       <c r="C101" s="9"/>
@@ -7614,8 +7730,8 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="13"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -7655,7 +7771,7 @@
       <c r="AV101" s="1"/>
       <c r="AW101" s="1"/>
       <c r="AX101" s="1"/>
-      <c r="AY101" s="10"/>
+      <c r="AY101" s="1"/>
       <c r="AZ101" s="10"/>
       <c r="BA101" s="10"/>
       <c r="BB101" s="10"/>
@@ -7671,10 +7787,11 @@
       <c r="BL101" s="10"/>
       <c r="BM101" s="10"/>
       <c r="BN101" s="10"/>
-      <c r="BO101" s="1"/>
-      <c r="BP101" s="10"/>
-    </row>
-    <row r="102" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO101" s="10"/>
+      <c r="BP101" s="1"/>
+      <c r="BQ101" s="10"/>
+    </row>
+    <row r="102" spans="1:69" ht="12.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="8"/>
       <c r="C102" s="9"/>
@@ -7684,8 +7801,8 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="13"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -7725,7 +7842,7 @@
       <c r="AV102" s="1"/>
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
-      <c r="AY102" s="10"/>
+      <c r="AY102" s="1"/>
       <c r="AZ102" s="10"/>
       <c r="BA102" s="10"/>
       <c r="BB102" s="10"/>
@@ -7741,37 +7858,38 @@
       <c r="BL102" s="10"/>
       <c r="BM102" s="10"/>
       <c r="BN102" s="10"/>
-      <c r="BO102" s="1"/>
-      <c r="BP102" s="10"/>
-    </row>
-    <row r="103" spans="1:68" ht="12.75" customHeight="1">
+      <c r="BO102" s="10"/>
+      <c r="BP102" s="1"/>
+      <c r="BQ102" s="10"/>
+    </row>
+    <row r="103" spans="1:69" ht="12.75" customHeight="1">
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:68" ht="12.75" customHeight="1">
+    <row r="104" spans="1:69" ht="12.75" customHeight="1">
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:68" ht="12.75" customHeight="1">
+    <row r="105" spans="1:69" ht="12.75" customHeight="1">
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:68" ht="12.75" customHeight="1">
+    <row r="106" spans="1:69" ht="12.75" customHeight="1">
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:68" ht="12.75" customHeight="1">
+    <row r="107" spans="1:69" ht="12.75" customHeight="1">
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:68" ht="12.75" customHeight="1">
+    <row r="108" spans="1:69" ht="12.75" customHeight="1">
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:68" ht="12.75" customHeight="1">
+    <row r="109" spans="1:69" ht="12.75" customHeight="1">
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:68" ht="12.75" customHeight="1">
+    <row r="110" spans="1:69" ht="12.75" customHeight="1">
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:68" ht="12.75" customHeight="1">
+    <row r="111" spans="1:69" ht="12.75" customHeight="1">
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:68" ht="12.75" customHeight="1">
+    <row r="112" spans="1:69" ht="12.75" customHeight="1">
       <c r="B112" s="11"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1">
